--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2638,11 +2638,22 @@
       <c r="A197" s="7" t="n">
         <v>45617</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="4" t="n">
         <v>0.5477770151757798</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="4" t="n">
         <v>0.441859544117669</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="7" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.497099102745733</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.2614314557005134</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2649,11 +2649,22 @@
       <c r="A198" s="7" t="n">
         <v>45618</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="4" t="n">
         <v>0.497099102745733</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="4" t="n">
         <v>0.2614314557005134</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="7" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8564442480483134</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.483827671039651</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2660,11 +2660,22 @@
       <c r="A199" s="7" t="n">
         <v>45621</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="4" t="n">
         <v>0.8564442480483134</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="4" t="n">
         <v>0.483827671039651</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="7" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.6871728455021315</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4918117585758388</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2671,11 +2671,22 @@
       <c r="A200" s="7" t="n">
         <v>45622</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="4" t="n">
         <v>0.6871728455021315</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="4" t="n">
         <v>0.4918117585758388</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="7" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8021672134406999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5943459280715664</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2682,11 +2682,22 @@
       <c r="A201" s="7" t="n">
         <v>45623</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="4" t="n">
         <v>0.8021672134406999</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="4" t="n">
         <v>0.5943459280715664</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="7" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.7141245834401435</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.4166773622884158</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2693,11 +2693,22 @@
       <c r="A202" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="4" t="n">
         <v>0.7141245834401435</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="4" t="n">
         <v>0.4166773622884158</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="7" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.6524446960812068</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.5627026947002292</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2704,11 +2704,22 @@
       <c r="A203" s="7" t="n">
         <v>45625</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="4" t="n">
         <v>0.6524446960812068</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="4" t="n">
         <v>0.5627026947002292</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="7" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.604262473421352</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3712337680484739</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2715,11 +2715,22 @@
       <c r="A204" s="7" t="n">
         <v>45628</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="4" t="n">
         <v>0.604262473421352</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="4" t="n">
         <v>0.3712337680484739</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="7" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.5186741923862135</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.307377559946096</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2726,11 +2726,22 @@
       <c r="A205" s="7" t="n">
         <v>45629</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="4" t="n">
         <v>0.5186741923862135</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="4" t="n">
         <v>0.307377559946096</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="7" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.6896811548223351</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.5378812370157786</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2737,11 +2737,22 @@
       <c r="A206" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="4" t="n">
         <v>0.6896811548223351</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="4" t="n">
         <v>0.5378812370157786</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="7" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.7121133275513154</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.4035081943369511</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2748,11 +2748,22 @@
       <c r="A207" s="7" t="n">
         <v>45631</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="4" t="n">
         <v>0.7121133275513154</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="4" t="n">
         <v>0.4035081943369511</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="7" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.7194651058813966</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.5725194723347173</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2759,11 +2759,22 @@
       <c r="A208" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="4" t="n">
         <v>0.7194651058813966</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="4" t="n">
         <v>0.5725194723347173</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="7" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.7195380236944867</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3584047966003768</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2770,11 +2770,22 @@
       <c r="A209" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="4" t="n">
         <v>0.7195380236944867</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="4" t="n">
         <v>0.3584047966003768</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="7" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.5049804818952752</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.3351531091280727</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2781,11 +2781,22 @@
       <c r="A210" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="4" t="n">
         <v>0.5049804818952752</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="4" t="n">
         <v>0.3351531091280727</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="7" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.5168287210172027</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.3136493115356607</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2792,11 +2792,22 @@
       <c r="A211" s="7" t="n">
         <v>45637</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="4" t="n">
         <v>0.5168287210172027</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="4" t="n">
         <v>0.3136493115356607</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="7" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.5968700981286251</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.34117309515443</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -2803,10 +2803,10 @@
       <c r="A212" s="7" t="n">
         <v>45638</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="4" t="n">
         <v>0.5968700981286251</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="4" t="n">
         <v>0.34117309515443</v>
       </c>
     </row>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2808,6 +2808,17 @@
       </c>
       <c r="C212" s="4" t="n">
         <v>0.34117309515443</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="7" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.7711501901140685</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.2375183021607385</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2814,11 +2814,22 @@
       <c r="A213" s="7" t="n">
         <v>45642</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="4" t="n">
         <v>0.7711501901140685</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="4" t="n">
         <v>0.2375183021607385</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="7" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.4312768160970558</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.5339879742851587</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2825,11 +2825,22 @@
       <c r="A214" s="7" t="n">
         <v>45643</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="4" t="n">
         <v>0.4312768160970558</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="4" t="n">
         <v>0.5339879742851587</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="7" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.7726260010838802</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.3484701705421683</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2836,11 +2836,33 @@
       <c r="A215" s="7" t="n">
         <v>45644</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="4" t="n">
         <v>0.7726260010838802</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="4" t="n">
         <v>0.3484701705421683</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>0.9373415939172064</v>
+      </c>
+      <c r="C216" s="4" t="n">
+        <v>0.5470622358266816</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.8634136908598685</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7562693982249574</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2858,11 +2858,22 @@
       <c r="A217" s="7" t="n">
         <v>45645</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="4" t="n">
         <v>0.8634136908598685</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" s="4" t="n">
         <v>0.7562693982249574</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="7" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.7409469153515065</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.9007007898117776</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2869,11 +2869,22 @@
       <c r="A218" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="4" t="n">
         <v>0.7409469153515065</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" s="4" t="n">
         <v>0.9007007898117776</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="7" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.7563451776649747</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.224821063418852</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2880,11 +2880,22 @@
       <c r="A219" s="7" t="n">
         <v>45649</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="4" t="n">
         <v>0.7563451776649747</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" s="4" t="n">
         <v>1.224821063418852</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="7" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.8747603236215685</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.459092026526454</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2891,11 +2891,22 @@
       <c r="A220" s="7" t="n">
         <v>45652</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="4" t="n">
         <v>0.8747603236215685</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="4" t="n">
         <v>0.459092026526454</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="7" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8358941203316346</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6798436214893295</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2902,11 +2902,22 @@
       <c r="A221" s="7" t="n">
         <v>45653</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="4" t="n">
         <v>0.8358941203316346</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" s="4" t="n">
         <v>0.6798436214893295</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="7" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.8671889015128864</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.589389724478866</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2913,11 +2913,22 @@
       <c r="A222" s="7" t="n">
         <v>45658</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="4" t="n">
         <v>0.8671889015128864</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" s="4" t="n">
         <v>0.589389724478866</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="7" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.7460427068947201</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.3766343486967906</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2924,11 +2924,22 @@
       <c r="A223" s="7" t="n">
         <v>45659</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="4" t="n">
         <v>0.7460427068947201</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" s="4" t="n">
         <v>0.3766343486967906</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="7" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.6851790529353328</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.2732575200541325</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>

--- a/pcrpetr.xlsx
+++ b/pcrpetr.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2935,11 +2935,22 @@
       <c r="A224" s="7" t="n">
         <v>45663</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="4" t="n">
         <v>0.6851790529353328</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" s="4" t="n">
         <v>0.2732575200541325</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="7" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.5871452465022433</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.2377771247524227</v>
       </c>
     </row>
     <row r="1048557" ht="12.75" customHeight="1" s="5"/>
